--- a/doc/HTML5+SDK_App升级.xlsx
+++ b/doc/HTML5+SDK_App升级.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="3100" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="11360" yWindow="2680" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="App升级" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>独立应用集成方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,112 @@
   </si>
   <si>
     <t>真机运行环境下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setup 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setup 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;wgtu appid="HelloH5" &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>iOS客户端运行时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加载的资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在应用沙盒中的 /AppData/Library/Pandora/apps/HelloH5/www</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App增量更新的升级包制作过程(以app id为HelloH5为例)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setup 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将Setup 1和2做成的资源压缩为zip格式的包,并且将zip格式改成wgtu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩格式必须为zip;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source制造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前webapp的版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                     widgetVersion = widgetInfo.version;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                     alert("当前webapp版本:" + widgetVersion);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                     widgetUpdate();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                     });</t>
+  </si>
+  <si>
+    <t>plus.runtime.getProperty(plus.runtime.appid,function(widgetInfo){</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建下载任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于保存的文件的路劲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存文件路径仅支持以"_downloads/"、"_doc/"、"_documents/"开头的字符串。 文件路径以文件后缀名结尾（如"_doc/download/a.doc"）表明指定保存文件目录及名称，以“/”结尾则认为指定保存文件的目录（此时程序自动生成文件名）。 如果指定的文件已经存在，则自动在文件名后面加"(i)"，其中i为数字，如果文件名称后面已经是此格式，则数字i递增，如"download(1).doc"。 默认保存目录为（"_downloads"），并自动生成文件名称。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_downloads</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -206,62 +312,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Setup 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setup 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;wgtu appid="HelloH5" &gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>iOS客户端运行时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>加载的资源</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>在应用沙盒中的 /AppData/Library/Pandora/apps/HelloH5/www</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App增量更新的升级包制作过程(以app id为HelloH5为例)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setup 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将Setup 1和2做成的资源压缩为zip格式的包,并且将zip格式改成wgtu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压缩格式必须为zip;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Library/Caches/Pandora/downloads</t>
   </si>
 </sst>
 </file>
@@ -414,8 +465,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -464,7 +517,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="33">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -480,6 +533,7 @@
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -495,6 +549,7 @@
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -824,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q62"/>
+  <dimension ref="B2:R76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -833,378 +888,452 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11">
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
+    <row r="2" spans="2:12">
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
       <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
-      <c r="D6" s="1" t="s">
+    <row r="6" spans="2:12">
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+    <row r="7" spans="2:12">
+      <c r="F7" s="2"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="E8" s="5" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="F8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="E9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="F9" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="E10" s="5" t="s">
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="E11" s="5" t="s">
+      <c r="K10" s="6"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="F11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="E12" s="5" t="s">
+      <c r="K11" s="6"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="F12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="E13" s="5" t="s">
+      <c r="K12" s="6"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="F13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="E14" s="5" t="s">
+      <c r="K13" s="6"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="F14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="F15" s="8"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="D16" s="1" t="s">
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="3:17">
-      <c r="E17" s="1" t="s">
+    <row r="17" spans="4:18">
+      <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="3:17">
-      <c r="E18" s="1" t="s">
+    <row r="18" spans="4:18">
+      <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="3:17">
-      <c r="G19" s="1" t="s">
+    <row r="19" spans="4:18">
+      <c r="H19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="3:17">
-      <c r="E21" s="1" t="s">
+    <row r="21" spans="4:18">
+      <c r="F21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="3:17">
-      <c r="G22" s="1" t="s">
+    <row r="22" spans="4:18">
+      <c r="H22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="3:17">
-      <c r="C23" s="1" t="s">
-        <v>44</v>
-      </c>
+    <row r="23" spans="4:18">
       <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:17">
-      <c r="D24" s="1" t="s">
+    <row r="24" spans="4:18">
+      <c r="E24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="3:17">
-      <c r="D25" s="12" t="s">
+    <row r="25" spans="4:18">
+      <c r="E25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="3:17">
-      <c r="D26" s="12"/>
-      <c r="G26" s="1" t="s">
+    <row r="26" spans="4:18">
+      <c r="E26" s="12"/>
+      <c r="H26" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="3:17">
-      <c r="G27" s="1" t="s">
+    <row r="27" spans="4:18">
+      <c r="H27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="3:17">
-      <c r="G28" s="2" t="s">
+    <row r="28" spans="4:18">
+      <c r="H28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="K28" s="3"/>
+      <c r="L28" s="4"/>
+      <c r="N28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="4"/>
-    </row>
-    <row r="29" spans="3:17">
-      <c r="G29" s="5"/>
-      <c r="H29" s="6" t="s">
+      <c r="Q28" s="3"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="4:18">
+      <c r="H29" s="5"/>
+      <c r="I29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="7"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="6" t="s">
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O29" s="6"/>
       <c r="P29" s="6"/>
-      <c r="Q29" s="7"/>
-    </row>
-    <row r="30" spans="3:17">
-      <c r="G30" s="5"/>
-      <c r="H30" s="11" t="s">
+      <c r="Q29" s="6"/>
+      <c r="R29" s="7"/>
+    </row>
+    <row r="30" spans="4:18">
+      <c r="H30" s="5"/>
+      <c r="I30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="7"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="11" t="s">
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O30" s="6"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="7"/>
-    </row>
-    <row r="31" spans="3:17">
-      <c r="G31" s="5"/>
-      <c r="H31" s="6" t="s">
+      <c r="Q30" s="6"/>
+      <c r="R30" s="7"/>
+    </row>
+    <row r="31" spans="4:18">
+      <c r="H31" s="5"/>
+      <c r="I31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="7"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="6" t="s">
+      <c r="K31" s="6"/>
+      <c r="L31" s="7"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O31" s="6"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="7"/>
-    </row>
-    <row r="32" spans="3:17">
-      <c r="G32" s="5"/>
-      <c r="H32" s="6" t="s">
+      <c r="Q31" s="6"/>
+      <c r="R31" s="7"/>
+    </row>
+    <row r="32" spans="4:18">
+      <c r="H32" s="5"/>
+      <c r="I32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="7"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="6" t="s">
+      <c r="K32" s="6"/>
+      <c r="L32" s="7"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O32" s="6"/>
       <c r="P32" s="6"/>
-      <c r="Q32" s="7"/>
-    </row>
-    <row r="33" spans="2:17">
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="7"/>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="H33" s="8"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="10"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="10"/>
+      <c r="N33" s="8"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
-      <c r="Q33" s="10"/>
-    </row>
-    <row r="35" spans="2:17">
-      <c r="D35" s="12" t="s">
+      <c r="Q33" s="9"/>
+      <c r="R33" s="10"/>
+    </row>
+    <row r="35" spans="2:18">
+      <c r="E35" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:17">
-      <c r="E36" s="1" t="s">
+    <row r="36" spans="2:18">
+      <c r="F36" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="2:17">
-      <c r="E37" s="1" t="s">
+    <row r="37" spans="2:18">
+      <c r="F37" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:17">
-      <c r="E38" s="1" t="s">
+    <row r="38" spans="2:18">
+      <c r="F38" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:17">
-      <c r="C40" s="1" t="s">
+    <row r="40" spans="2:18">
+      <c r="D40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="1" t="s">
+    </row>
+    <row r="41" spans="2:18">
+      <c r="E41" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="41" spans="2:17">
-      <c r="D41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17">
-      <c r="B48" s="1" t="s">
+    </row>
+    <row r="47" spans="2:18">
+      <c r="B47" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18">
+      <c r="C48" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
-      <c r="C49" s="1" t="s">
+    <row r="49" spans="3:5">
+      <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
-      <c r="C50" s="1">
+    <row r="50" spans="3:5">
+      <c r="D50" s="1">
         <v>1</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
-      <c r="C51" s="1">
+    <row r="51" spans="3:5">
+      <c r="D51" s="1">
         <v>2</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
-      <c r="C52" s="1">
+    <row r="52" spans="3:5">
+      <c r="D52" s="1">
         <v>3</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
-      <c r="C54" s="1" t="s">
+    <row r="54" spans="3:5">
+      <c r="D54" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
-      <c r="C55" s="1" t="s">
+    <row r="55" spans="3:5">
+      <c r="D55" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="1" t="s">
+    <row r="57" spans="3:5">
+      <c r="D57" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
-      <c r="C61" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="C62" s="1" t="s">
-        <v>46</v>
+    <row r="58" spans="3:5">
+      <c r="E58" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5">
+      <c r="E59" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5">
+      <c r="C63" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5">
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7">
+      <c r="E65" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7">
+      <c r="E66" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7">
+      <c r="E67" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7">
+      <c r="E68" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7">
+      <c r="E69" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7">
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7">
+      <c r="D73" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7">
+      <c r="E74" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7">
+      <c r="E76" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/doc/HTML5+SDK_App升级.xlsx
+++ b/doc/HTML5+SDK_App升级.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11360" yWindow="2680" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="4660" yWindow="400" windowWidth="30760" windowHeight="19940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="App升级" sheetId="1" r:id="rId1"/>
+    <sheet name="App升级具体操作" sheetId="2" r:id="rId2"/>
+    <sheet name="测试过程" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t>独立应用集成方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保存文件路径仅支持以"_downloads/"、"_doc/"、"_documents/"开头的字符串。 文件路径以文件后缀名结尾（如"_doc/download/a.doc"）表明指定保存文件目录及名称，以“/”结尾则认为指定保存文件的目录（此时程序自动生成文件名）。 如果指定的文件已经存在，则自动在文件名后面加"(i)"，其中i为数字，如果文件名称后面已经是此格式，则数字i递增，如"download(1).doc"。 默认保存目录为（"_downloads"），并自动生成文件名称。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_downloads</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,12 +312,111 @@
   <si>
     <t>Library/Caches/Pandora/downloads</t>
   </si>
+  <si>
+    <t xml:space="preserve">保存文件路径仅支持以"_downloads/"、"_doc/"、"_documents/"开头的字符串。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">文件路径以文件后缀名结尾（如"_doc/download/a.doc"）表明指定保存文件目录及名称，以“/”结尾则认为指定保存文件的目录（此时程序自动生成文件名）。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果指定的文件已经存在，则自动在文件名后面加"(i)"，其中i为数字，如果文件名称后面已经是此格式，则数字i递增，如"download(1).doc"。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认保存目录为（"_downloads"），并自动生成文件名称。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于App增量升级流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App的程序开发阶段完成,该阶段确定了新增，修改，删除的资源文件,包括html,js,css,图片等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将这部分资源按照工程目录的结构打成zip的压缩包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传该压缩包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.0.105:8088/arm/</t>
+  </si>
+  <si>
+    <t>3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用管理模块中，找到本次升级的应用id对应的行，选择"查看版本"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有相应的应用id的记录，可以点击"添加",填好"应用名称"和"版本号",格式统一为"x.x.x.x"形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在跳转的页面中选择"添加",点击"应用名称"，在弹出的选择列表中,勾选本次升级的应用,在版本号框框中填写本次升级的版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击"保存"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在当前页刷新的列表中,找到上一步设置好的版本号一行,选择"修改明细"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须要打包进去的文件 manifest.json，并且要修改文件的version节点下的name为新的版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它的文件均在与manifest.json同一级别目录下的www文件夹中，该文件夹中只加入新增和修改的文件，删除的文件不用加入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在跳转的页面中,点击"选取文件",选择之前的做好的zip压缩包，压缩包制作参考2，点击上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有新的版本中存在需要删除的文件,则在页面中展示的树型目录中删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终结果的确认，也在当前页面的文件状态列表查看，其中"更新状态"列表示的是该版本中相关文件的新增/修改和删除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上，即是升级的物理操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -366,6 +463,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -465,7 +568,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -499,8 +602,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -516,8 +631,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="45">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -534,6 +651,12 @@
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -550,6 +673,12 @@
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -879,9 +1008,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R76"/>
+  <dimension ref="B2:R82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
@@ -1264,7 +1395,7 @@
     </row>
     <row r="58" spans="3:5">
       <c r="E58" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="3:5">
@@ -1285,32 +1416,32 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="3:7">
+    <row r="65" spans="3:5">
       <c r="E65" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="3:7">
+    <row r="66" spans="3:5">
       <c r="E66" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="3:7">
+    <row r="67" spans="3:5">
       <c r="E67" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="3:7">
+    <row r="68" spans="3:5">
       <c r="E68" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="3:7">
+    <row r="69" spans="3:5">
       <c r="E69" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="3:7">
+    <row r="71" spans="3:5">
       <c r="C71" s="1">
         <v>2</v>
       </c>
@@ -1318,22 +1449,37 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="3:7">
+    <row r="73" spans="3:5">
       <c r="D73" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="3:7">
+    <row r="74" spans="3:5">
       <c r="E74" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5">
+      <c r="E75" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5">
+      <c r="E76" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5">
+      <c r="E77" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7">
+      <c r="E82" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="76" spans="3:7">
-      <c r="E76" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>65</v>
+      <c r="G82" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1346,4 +1492,163 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5">
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="E9" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="E10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="D13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="D14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="D15" s="13"/>
+      <c r="E15" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="E19" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="E24" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="E25" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/doc/HTML5+SDK_App升级.xlsx
+++ b/doc/HTML5+SDK_App升级.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="400" windowWidth="30760" windowHeight="19940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1160" yWindow="0" windowWidth="30760" windowHeight="19940" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="App升级" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
   <si>
     <t>独立应用集成方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,6 +409,66 @@
   </si>
   <si>
     <t>以上，即是升级的物理操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前存在问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增 test2/file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除 file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增量升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨版本升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有test2文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有test2文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增量升级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,7 +628,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -614,8 +674,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -633,8 +707,14 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="59">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -657,6 +737,13 @@
     <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -679,6 +766,13 @@
     <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1498,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -1632,19 +1726,92 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C3:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="4" width="10.83203125" style="14"/>
+    <col min="5" max="5" width="20.6640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="14"/>
+    <col min="7" max="7" width="14.6640625" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="14"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="3:9">
+      <c r="C3" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="D5" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="D6" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="E13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="D14" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E13:G13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/doc/HTML5+SDK_App升级.xlsx
+++ b/doc/HTML5+SDK_App升级.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
   <si>
     <t>独立应用集成方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,43 +416,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增 test2/file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除 file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增量升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跨版本升级</t>
+    <t>v1-&gt;v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2-&gt;v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增 test2/file.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只删除file.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容变更</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -460,15 +440,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有test2文件夹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有test2文件夹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增量升级</t>
+    <t>增加了test2文件夹,且该文件夹下增加了file.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本递增升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1-&gt;v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>file.html被删除,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>test2文件夹存在</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>file.html不存在,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>test2文件夹不存在</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨越版本升级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +499,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -530,6 +553,17 @@
       <name val="宋体 (正文)"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -539,7 +573,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -627,8 +661,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -688,8 +763,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -707,14 +788,24 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="65">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -744,6 +835,9 @@
     <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -773,11 +867,95 @@
     <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10109200" y="1943100"/>
+          <a:ext cx="7696200" cy="4673600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3746500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1422400" y="1943100"/>
+          <a:ext cx="7848600" cy="4813300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1726,92 +1904,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I14"/>
+  <dimension ref="B3:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="14"/>
-    <col min="5" max="5" width="20.6640625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="14"/>
-    <col min="7" max="7" width="14.6640625" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="14.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="60.1640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="45.33203125" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9">
-      <c r="C3" s="14" t="s">
+    <row r="3" spans="2:6">
+      <c r="B3" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="3:9">
-      <c r="D5" s="14" t="s">
+    <row r="6" spans="2:6">
+      <c r="B6" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="E7" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="F7" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="3:9">
-      <c r="D6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9">
-      <c r="E13" s="16"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="3:9">
-      <c r="D14" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>103</v>
-      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
